--- a/1-constructive-heuristics/results/VRPTW_tm_constructive.xlsx
+++ b/1-constructive-heuristics/results/VRPTW_tm_constructive.xlsx
@@ -446,7 +446,7 @@
         <v>257.922</v>
       </c>
       <c r="C1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -686,7 +686,7 @@
         <v>1435.358</v>
       </c>
       <c r="C1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -1976,7 +1976,7 @@
         <v>889.047</v>
       </c>
       <c r="C1" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -2806,7 +2806,7 @@
         <v>779.902</v>
       </c>
       <c r="C1" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -3496,7 +3496,7 @@
         <v>1962.402</v>
       </c>
       <c r="C1" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -4566,7 +4566,7 @@
         <v>2208.197</v>
       </c>
       <c r="C1" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -5296,7 +5296,7 @@
         <v>2185.075</v>
       </c>
       <c r="C1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -6286,7 +6286,7 @@
         <v>2938.973</v>
       </c>
       <c r="C1" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -7016,7 +7016,7 @@
         <v>328.895</v>
       </c>
       <c r="C1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -7576,7 +7576,7 @@
         <v>745.996</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -7796,7 +7796,7 @@
         <v>567.9059999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -8296,7 +8296,7 @@
         <v>493.598</v>
       </c>
       <c r="C1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -8726,7 +8726,7 @@
         <v>515.023</v>
       </c>
       <c r="C1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -9096,7 +9096,7 @@
         <v>1256.124</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
